--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 1.xlsx_with_dialog_acts.xlsx
@@ -507,12 +507,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1624,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2168,12 +2168,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2745,12 +2745,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2993,12 +2993,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4115,12 +4115,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
